--- a/File User PageRank attributes.xlsx
+++ b/File User PageRank attributes.xlsx
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>105246</v>
+        <v>105277</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>56024</v>
+        <v>56035</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -782,7 +782,7 @@
         <v>3175</v>
       </c>
       <c r="G3">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H3">
         <v>3358</v>
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>41873</v>
+        <v>41876</v>
       </c>
       <c r="C4">
         <v>46</v>
@@ -825,7 +825,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>21760</v>
+        <v>21759</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>51812</v>
+        <v>51842</v>
       </c>
       <c r="C6">
         <v>171</v>
@@ -872,10 +872,10 @@
         <v>1324</v>
       </c>
       <c r="H6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="I6">
-        <v>0.8288423153692615</v>
+        <v>0.828428927680798</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>28562</v>
+        <v>28566</v>
       </c>
       <c r="C7">
         <v>254</v>
@@ -912,7 +912,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>34816</v>
+        <v>34824</v>
       </c>
       <c r="C8">
         <v>254</v>
@@ -941,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>58185</v>
+        <v>58191</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>54032</v>
+        <v>54043</v>
       </c>
       <c r="C10">
         <v>93</v>
@@ -999,7 +999,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>36130</v>
+        <v>36142</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -1057,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>27607</v>
+        <v>27612</v>
       </c>
       <c r="C13">
         <v>200</v>
@@ -1089,7 +1089,7 @@
         <v>11475</v>
       </c>
       <c r="C14">
-        <v>229784</v>
+        <v>229783</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -1115,7 +1115,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>18723</v>
+        <v>18726</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>20093</v>
+        <v>20096</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -1173,7 +1173,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>17114</v>
+        <v>17120</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1202,13 +1202,13 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>12108</v>
+        <v>12110</v>
       </c>
       <c r="C18">
         <v>21</v>
       </c>
       <c r="D18">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>2008</v>
@@ -1217,13 +1217,13 @@
         <v>64</v>
       </c>
       <c r="G18">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18">
-        <v>0.8421052631578947</v>
+        <v>0.8311688311688312</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1260,7 +1260,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>9907</v>
+        <v>9910</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>14041</v>
+        <v>14044</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>18611</v>
+        <v>18615</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>12304</v>
+        <v>12303</v>
       </c>
       <c r="C24">
         <v>24</v>
@@ -1405,7 +1405,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>23747</v>
+        <v>23750</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1434,7 +1434,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>12169</v>
+        <v>12172</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>35998</v>
+        <v>36002</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1492,7 +1492,7 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>24695</v>
+        <v>24700</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1521,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>23086</v>
+        <v>23092</v>
       </c>
       <c r="C29">
         <v>244</v>
@@ -1550,7 +1550,7 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>13382</v>
+        <v>13386</v>
       </c>
       <c r="C30">
         <v>222</v>
@@ -1637,7 +1637,7 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>18576</v>
+        <v>18580</v>
       </c>
       <c r="C33">
         <v>35</v>
@@ -1655,10 +1655,10 @@
         <v>720</v>
       </c>
       <c r="H33">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="I33">
-        <v>0.8667239896818573</v>
+        <v>0.8652360515021459</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1666,7 +1666,7 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>7143</v>
+        <v>7142</v>
       </c>
       <c r="C34">
         <v>97</v>
@@ -1724,10 +1724,10 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>13263</v>
+        <v>13267</v>
       </c>
       <c r="C36">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36">
         <v>34</v>
@@ -1753,7 +1753,7 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>29935</v>
+        <v>29950</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>19231</v>
+        <v>19233</v>
       </c>
       <c r="C38">
         <v>173</v>
@@ -1811,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>17619</v>
+        <v>17626</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1829,10 +1829,10 @@
         <v>3887</v>
       </c>
       <c r="H39">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I39">
-        <v>0.8883826879271071</v>
+        <v>0.8863636363636364</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1840,7 +1840,7 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>13913</v>
+        <v>13919</v>
       </c>
       <c r="C40">
         <v>22</v>
@@ -1872,7 +1872,7 @@
         <v>7186</v>
       </c>
       <c r="C41">
-        <v>128960</v>
+        <v>128958</v>
       </c>
       <c r="D41">
         <v>131</v>
@@ -1898,7 +1898,7 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>19023</v>
+        <v>19029</v>
       </c>
       <c r="C42">
         <v>14</v>
@@ -1927,7 +1927,7 @@
         <v>50</v>
       </c>
       <c r="B43">
-        <v>15210</v>
+        <v>15213</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1956,7 +1956,7 @@
         <v>51</v>
       </c>
       <c r="B44">
-        <v>12494</v>
+        <v>12496</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -2014,7 +2014,7 @@
         <v>53</v>
       </c>
       <c r="B46">
-        <v>9610</v>
+        <v>9613</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>54</v>
       </c>
       <c r="B47">
-        <v>9460</v>
+        <v>9461</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2101,7 +2101,7 @@
         <v>56</v>
       </c>
       <c r="B49">
-        <v>12533</v>
+        <v>12537</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2119,10 +2119,10 @@
         <v>432</v>
       </c>
       <c r="H49">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I49">
-        <v>0.9018612521150592</v>
+        <v>0.9003378378378378</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2130,7 +2130,7 @@
         <v>57</v>
       </c>
       <c r="B50">
-        <v>9732</v>
+        <v>9731</v>
       </c>
       <c r="C50">
         <v>28</v>
@@ -2159,7 +2159,7 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>16167</v>
+        <v>16169</v>
       </c>
       <c r="C51">
         <v>38</v>
@@ -2188,7 +2188,7 @@
         <v>59</v>
       </c>
       <c r="B52">
-        <v>14535</v>
+        <v>14537</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2200,16 +2200,16 @@
         <v>2010</v>
       </c>
       <c r="F52">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G52">
         <v>49</v>
       </c>
       <c r="H52">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I52">
-        <v>0.9643564356435643</v>
+        <v>0.9644268774703557</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2217,7 +2217,7 @@
         <v>60</v>
       </c>
       <c r="B53">
-        <v>13199</v>
+        <v>13203</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -2275,7 +2275,7 @@
         <v>62</v>
       </c>
       <c r="B55">
-        <v>14404</v>
+        <v>14405</v>
       </c>
       <c r="C55">
         <v>36</v>
@@ -2304,7 +2304,7 @@
         <v>63</v>
       </c>
       <c r="B56">
-        <v>15383</v>
+        <v>15384</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -2333,7 +2333,7 @@
         <v>64</v>
       </c>
       <c r="B57">
-        <v>11465</v>
+        <v>11463</v>
       </c>
       <c r="C57">
         <v>16</v>
@@ -2362,7 +2362,7 @@
         <v>65</v>
       </c>
       <c r="B58">
-        <v>24426</v>
+        <v>24431</v>
       </c>
       <c r="C58">
         <v>22</v>
@@ -2391,7 +2391,7 @@
         <v>66</v>
       </c>
       <c r="B59">
-        <v>15345</v>
+        <v>15344</v>
       </c>
       <c r="C59">
         <v>91</v>
@@ -2420,7 +2420,7 @@
         <v>67</v>
       </c>
       <c r="B60">
-        <v>4718</v>
+        <v>4719</v>
       </c>
       <c r="C60">
         <v>61</v>
@@ -2449,7 +2449,7 @@
         <v>68</v>
       </c>
       <c r="B61">
-        <v>7507</v>
+        <v>7506</v>
       </c>
       <c r="C61">
         <v>27</v>
@@ -2478,7 +2478,7 @@
         <v>69</v>
       </c>
       <c r="B62">
-        <v>13411</v>
+        <v>13420</v>
       </c>
       <c r="C62">
         <v>13</v>
@@ -2507,7 +2507,7 @@
         <v>70</v>
       </c>
       <c r="B63">
-        <v>15579</v>
+        <v>15590</v>
       </c>
       <c r="C63">
         <v>16</v>
@@ -2536,7 +2536,7 @@
         <v>71</v>
       </c>
       <c r="B64">
-        <v>13193</v>
+        <v>13195</v>
       </c>
       <c r="C64">
         <v>17</v>
@@ -2594,7 +2594,7 @@
         <v>73</v>
       </c>
       <c r="B66">
-        <v>18209</v>
+        <v>18218</v>
       </c>
       <c r="C66">
         <v>31</v>
@@ -2652,7 +2652,7 @@
         <v>75</v>
       </c>
       <c r="B68">
-        <v>8148</v>
+        <v>8149</v>
       </c>
       <c r="C68">
         <v>64</v>
@@ -2681,13 +2681,13 @@
         <v>76</v>
       </c>
       <c r="B69">
-        <v>11247</v>
+        <v>11250</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E69">
         <v>2010</v>
@@ -2739,7 +2739,7 @@
         <v>78</v>
       </c>
       <c r="B71">
-        <v>12320</v>
+        <v>12324</v>
       </c>
       <c r="C71">
         <v>34</v>
@@ -2768,7 +2768,7 @@
         <v>79</v>
       </c>
       <c r="B72">
-        <v>9773</v>
+        <v>9774</v>
       </c>
       <c r="C72">
         <v>20</v>
@@ -2797,7 +2797,7 @@
         <v>80</v>
       </c>
       <c r="B73">
-        <v>9470</v>
+        <v>9473</v>
       </c>
       <c r="C73">
         <v>245</v>
@@ -2884,7 +2884,7 @@
         <v>83</v>
       </c>
       <c r="B76">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>84</v>
       </c>
       <c r="B77">
-        <v>12671</v>
+        <v>12674</v>
       </c>
       <c r="C77">
         <v>129</v>
       </c>
       <c r="D77">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E77">
         <v>2010</v>
       </c>
       <c r="F77">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G77">
         <v>84</v>
       </c>
       <c r="H77">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I77">
-        <v>0.9072164948453608</v>
+        <v>0.9075342465753424</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2942,7 +2942,7 @@
         <v>85</v>
       </c>
       <c r="B78">
-        <v>9678</v>
+        <v>9683</v>
       </c>
       <c r="C78">
         <v>46</v>
@@ -2971,7 +2971,7 @@
         <v>86</v>
       </c>
       <c r="B79">
-        <v>7283</v>
+        <v>7286</v>
       </c>
       <c r="C79">
         <v>157</v>
@@ -3000,7 +3000,7 @@
         <v>87</v>
       </c>
       <c r="B80">
-        <v>9773</v>
+        <v>9775</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -3029,7 +3029,7 @@
         <v>88</v>
       </c>
       <c r="B81">
-        <v>5059</v>
+        <v>5060</v>
       </c>
       <c r="C81">
         <v>72390</v>
@@ -3087,7 +3087,7 @@
         <v>90</v>
       </c>
       <c r="B83">
-        <v>8385</v>
+        <v>8387</v>
       </c>
       <c r="C83">
         <v>103</v>
@@ -3116,7 +3116,7 @@
         <v>91</v>
       </c>
       <c r="B84">
-        <v>7355</v>
+        <v>7357</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>94</v>
       </c>
       <c r="B87">
-        <v>5257</v>
+        <v>5261</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3221,10 +3221,10 @@
         <v>583</v>
       </c>
       <c r="H87">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I87">
-        <v>0.7033898305084746</v>
+        <v>0.6974789915966386</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3261,7 +3261,7 @@
         <v>96</v>
       </c>
       <c r="B89">
-        <v>13050</v>
+        <v>13053</v>
       </c>
       <c r="C89">
         <v>23</v>
@@ -3296,7 +3296,7 @@
         <v>16</v>
       </c>
       <c r="D90">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E90">
         <v>2009</v>
@@ -3348,7 +3348,7 @@
         <v>99</v>
       </c>
       <c r="B92">
-        <v>7708</v>
+        <v>7710</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>100</v>
       </c>
       <c r="B93">
-        <v>9697</v>
+        <v>9699</v>
       </c>
       <c r="C93">
         <v>18</v>
@@ -3406,7 +3406,7 @@
         <v>101</v>
       </c>
       <c r="B94">
-        <v>9854</v>
+        <v>9856</v>
       </c>
       <c r="C94">
         <v>74</v>
@@ -3435,7 +3435,7 @@
         <v>102</v>
       </c>
       <c r="B95">
-        <v>12090</v>
+        <v>12092</v>
       </c>
       <c r="C95">
         <v>32</v>
@@ -3464,7 +3464,7 @@
         <v>103</v>
       </c>
       <c r="B96">
-        <v>5642</v>
+        <v>5643</v>
       </c>
       <c r="C96">
         <v>81</v>
@@ -3493,7 +3493,7 @@
         <v>104</v>
       </c>
       <c r="B97">
-        <v>7336</v>
+        <v>7337</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>105</v>
       </c>
       <c r="B98">
-        <v>8009</v>
+        <v>8011</v>
       </c>
       <c r="C98">
         <v>28</v>
